--- a/3.results/model_selection/goeland_leucophee_R_1_test_log_quad.xlsx
+++ b/3.results/model_selection/goeland_leucophee_R_1_test_log_quad.xlsx
@@ -6,18 +6,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mean_winter_SST" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mean_spring_SST" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mean_CHL" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mean_VEL" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="sd_VEL" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mean_winter_SST" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mean_spring_SST" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mean_summer_SST" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mean_autumn_SST" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mean_SST" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="sd_SST" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="concavity" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="slope" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="dist_to_shore" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="bathymetry" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mean_CHL" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mean_VEL" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sd_VEL" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -76,6 +83,9 @@
     <t xml:space="preserve">sd_beta_mean_winter_SST</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_winter_SST</t>
   </si>
   <si>
@@ -110,6 +120,222 @@
   </si>
   <si>
     <t xml:space="preserve">log_mean_spring_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(mean_summer_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_mean_summer_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(mean_summer_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_mean_summer_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_summer_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_summer_SST + I(mean_summer_SST)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_mean_summer_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(mean_autumn_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(mean_autumn_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_autumn_SST + I(mean_autumn_SST)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(mean_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_mean_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_mean_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(mean_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_mean_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_mean_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_SST + I(mean_SST)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_mean_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(sd_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_sd_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_sd_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(sd_SST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_sd_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_sd_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_SST + I(sd_SST)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_sd_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_concavity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(concavity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_concavity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_concavity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(concavity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_concavity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concavity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concavity + I(concavity)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_concavity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(slope)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(slope)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope + I(slope)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(dist_to_shore)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(dist_to_shore)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_to_shore + I(dist_to_shore)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_bathymetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_I(bathymetry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_bathymetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_I(bathymetry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathymetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathymetry + I(bathymetry)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_bathymetry</t>
   </si>
   <si>
     <t xml:space="preserve">beta_I(mean_CHL)</t>
@@ -257,7 +483,7 @@
     <dxf>
       <font>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFB6C1"/>
         <name val="Calibri"/>
         <b/>
       </font>
@@ -591,33 +817,255 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="n">
+        <v>-1.14358413605924</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="n">
+        <v>0.399815774192015</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.587774816605966</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>-0.592443097267129</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.19834060290417</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.19259905879016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>460.3</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>-1.17992965869199</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.408101792899815</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G2">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H2">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -627,10 +1075,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I2">
+      <formula>H2&lt;381</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -640,10 +1088,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2">
+      <formula>I2&lt;634</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -653,10 +1101,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K2">
+      <formula>J2&lt;1010</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -666,10 +1114,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L2">
+      <formula>K2&lt;381</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -679,10 +1127,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M2">
+      <formula>L2&lt;628</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -692,7 +1140,1523 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M1&lt;Inf</formula>
+      <formula>M2&lt;1004</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2035.9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>3.50285539902002</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="n">
+        <v>0.790095513769892</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3453</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>1.95501513533577</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>1.98312907664319</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="n">
+        <v>1.23920875207771</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>1.23528050515838</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>571.4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="n">
+        <v>-2.29707237883799</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="n">
+        <v>0.52678698892255</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>H2&lt;381</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I2&lt;626</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>J2&lt;1002</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>K2&lt;379</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;624</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M2&lt;998</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="n">
+        <v>1.75852245062252</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="n">
+        <v>0.710109527800751</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>346.9</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.927567750991795</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>0.966465268159479</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.23408608584069</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.23641260519502</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>266.9</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>1.49224644832515</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.610357429762522</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>H2&lt;380</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I2&lt;635</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>J2&lt;1010</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>K2&lt;378</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;635</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M2&lt;1008</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="n">
+        <v>1.74791042444763</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="n">
+        <v>0.413191925182018</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.904988985250468</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>0.881020136451641</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.18873695537111</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.20032482236078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>625.8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>1.73417857138639</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.394343702690887</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>H2&lt;388</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I2&lt;624</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>J2&lt;1007</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>K2&lt;387</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;622</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M2&lt;1004</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>663.9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="n">
+        <v>-0.61554018219058</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="n">
+        <v>0.374509520073537</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>692.1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.313611012527995</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>-0.319185597315434</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.14519079066998</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.15121576003449</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>814.9</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>-0.859494424642933</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.398271171983122</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>H2&lt;383</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I2&lt;638</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>J2&lt;1017</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>K2&lt;382</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;645</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M2&lt;1023</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,22 +2713,22 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -772,184 +2736,231 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2.278</v>
+        <v>1.039</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>10.9</v>
+        <v>705.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.42</v>
-      </c>
       <c r="H2" s="1" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="n">
-        <v>-1.40440856194452</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="n">
-        <v>0.502489123058198</v>
-      </c>
+      <c r="S2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.781</v>
+        <v>1.065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>26.3</v>
+        <v>840.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>-0.443662154223415</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="n">
-        <v>-0.647410968760352</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>1.15537279236578</v>
-      </c>
+        <v>-0.283979720348859</v>
+      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="n">
-        <v>1.13511549039352</v>
+        <v>0.473019650407666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.323</v>
+        <v>1.006</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>42.5</v>
+        <v>886.4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>0.51</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="H4" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.174152334256781</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>-0.170662309171979</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.20293776625015</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.19940660360034</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>760.1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="n">
-        <v>-1.08300515773241</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="n">
-        <v>0.34619142613886</v>
-      </c>
-      <c r="S4" s="1"/>
+      <c r="F5" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>-0.327981049229205</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.480778384184313</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -959,10 +2970,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H2&lt;381</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+      <formula>H2&lt;388</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -972,10 +2983,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;634</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+      <formula>I2&lt;638</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -985,10 +2996,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;1010</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
+      <formula>J2&lt;1021</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -998,10 +3009,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K2&lt;380</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L4">
+      <formula>K2&lt;389</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1011,10 +3022,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;630</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
+      <formula>L2&lt;645</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1024,7 +3035,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;1005</formula>
+      <formula>M2&lt;1029</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,151 +3092,143 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.161</v>
+        <v>1.039</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>27.7</v>
+        <v>705.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>383</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="n">
-        <v>-0.169754291956035</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="n">
-        <v>0.473688411191804</v>
-      </c>
+      <c r="S2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.17</v>
+        <v>1.008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>48.2</v>
+        <v>1126</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.56</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H3" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>385</v>
-      </c>
       <c r="L3" s="1" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>1023</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>0.00303076470266863</v>
-      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="n">
-        <v>-0.273954836627272</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>1.21505771670688</v>
-      </c>
+        <v>-0.99801721210058</v>
+      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="n">
-        <v>1.30695768637975</v>
+        <v>0.594993471148109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.113</v>
+        <v>1.004</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>56.4</v>
+        <v>1192.3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.47</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>383</v>
@@ -1237,51 +3240,106 @@
         <v>1017</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="n">
-        <v>-0.241314279856469</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="n">
-        <v>0.441127006127181</v>
-      </c>
-      <c r="S4" s="1"/>
+        <v>1022</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.57021250701858</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>-0.581300219646627</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.21942807313059</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.20920731615203</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1128.5</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>-0.996403894404366</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.594537099909639</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1291,10 +3349,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H2&lt;388</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+      <formula>H2&lt;387</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1304,10 +3362,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;639</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+      <formula>I2&lt;638</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1317,10 +3375,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;1022</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
+      <formula>J2&lt;1020</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1330,10 +3388,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K2&lt;390</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L4">
+      <formula>K2&lt;388</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1343,10 +3401,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;643</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
+      <formula>L2&lt;644</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1356,7 +3414,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;1028</formula>
+      <formula>M2&lt;1027</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1413,207 +3471,254 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.403</v>
+        <v>1.039</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>23.1</v>
+        <v>705.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="n">
-        <v>1.80080224977192</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="n">
-        <v>0.621070457351971</v>
-      </c>
+      <c r="S2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>5.235</v>
+        <v>1.05</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4.7</v>
+        <v>807.9</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>634</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>1.18164171601681</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="n">
-        <v>1.30257031437252</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>1.45247959990146</v>
-      </c>
+        <v>-0.768341593687069</v>
+      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="n">
-        <v>1.37353866392567</v>
+        <v>0.347796262454032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.053</v>
+        <v>1.021</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>27.8</v>
+        <v>727.6</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.51</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L4" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.409306375042581</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>-0.371052260312824</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.1834257199129</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.18684514315176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>789.8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>633</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="n">
-        <v>1.30909322258404</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="n">
-        <v>0.399730592987749</v>
-      </c>
-      <c r="S4" s="1"/>
+      <c r="M5" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>-0.762780149698998</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.361997096642311</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1623,10 +3728,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H2&lt;380</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+      <formula>H2&lt;385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1636,10 +3741,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;635</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+      <formula>I2&lt;637</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1649,10 +3754,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;1010</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
+      <formula>J2&lt;1017</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1662,10 +3767,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K2&lt;378</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L4">
+      <formula>K2&lt;385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1675,10 +3780,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;636</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
+      <formula>L2&lt;638</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1688,7 +3793,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;1009</formula>
+      <formula>M2&lt;1018</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1745,90 +3850,86 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.324</v>
+        <v>1.039</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45.6</v>
+        <v>705.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.49</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>383</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="n">
-        <v>1.78039395660752</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="n">
-        <v>0.365128396484264</v>
-      </c>
+      <c r="S2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.058</v>
+        <v>1.006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>76</v>
+        <v>1060.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.61</v>
@@ -1837,115 +3938,166 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>0.9474517702252</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="n">
-        <v>0.787974318865805</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>1.14099899630516</v>
-      </c>
+        <v>-0.954088195378804</v>
+      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="n">
-        <v>1.15415339752448</v>
+        <v>0.335286808256743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.785</v>
+        <v>1.012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>27</v>
+        <v>1073</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.56</v>
+        <v>0.51</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="n">
-        <v>1.69454205781186</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="n">
-        <v>0.418033401056157</v>
-      </c>
-      <c r="S4" s="1"/>
+        <v>1011</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.490935601660312</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>-0.487838717963021</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.17497709865446</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.18356226185359</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1062.1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>-0.964160863894233</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.326339413926042</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1955,10 +4107,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H2&lt;387</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+      <formula>H2&lt;383</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1968,10 +4120,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;624</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+      <formula>I2&lt;636</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1981,10 +4133,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;1006</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
+      <formula>J2&lt;1014</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1994,10 +4146,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K2&lt;386</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L4">
+      <formula>K2&lt;383</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2007,10 +4159,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;621</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
+      <formula>L2&lt;636</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2020,7 +4172,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;1004</formula>
+      <formula>M2&lt;1014</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2077,207 +4229,254 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.288</v>
+        <v>1.039</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>48.5</v>
+        <v>705.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="n">
-        <v>-0.665994305507575</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="n">
-        <v>0.348505331347285</v>
-      </c>
+      <c r="S2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.33</v>
+        <v>1.025</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>27.9</v>
+        <v>545.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>-0.316103435712339</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="n">
-        <v>-0.327224294535207</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>1.24959812045399</v>
-      </c>
+        <v>0.925014535918873</v>
+      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="n">
-        <v>1.20786850954904</v>
+        <v>0.346788278238499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.106</v>
+        <v>1.061</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>57.2</v>
+        <v>553.9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>378</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>377</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="n">
-        <v>-0.804293591048347</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="n">
-        <v>0.361630040999374</v>
-      </c>
-      <c r="S4" s="1"/>
+        <v>1005</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.449959386029536</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>0.493761413445573</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.18947522578301</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.19759725378078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>742.8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>0.869801644447972</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.325456526469607</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2290,7 +4489,7 @@
       <formula>H2&lt;383</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2300,10 +4499,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;640</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+      <formula>I2&lt;635</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2313,10 +4512,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;1018</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
+      <formula>J2&lt;1013</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2329,7 +4528,7 @@
       <formula>K2&lt;382</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L4">
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2339,10 +4538,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;649</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
+      <formula>L2&lt;633</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2352,7 +4551,1144 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;1026</formula>
+      <formula>M2&lt;1010</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>284.3</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>-0.146029415213826</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="n">
+        <v>0.75269800524013</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.0725917441165107</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>-0.0452761956644041</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="n">
+        <v>1.24758189894352</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>1.25220360971465</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="n">
+        <v>-0.104197442920306</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="n">
+        <v>0.714195313853152</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>H2&lt;388</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I2&lt;638</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>J2&lt;1021</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>K2&lt;389</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;645</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M2&lt;1029</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>653.6</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="n">
+        <v>-0.946528671566945</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="n">
+        <v>0.295280065069703</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>750.4</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.478253803595642</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>-0.470960140064428</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1.18809085334725</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="n">
+        <v>1.19174055144837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>-1.03770642312753</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>0.553828005600174</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>H2&lt;385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I2&lt;636</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>J2&lt;1016</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>K2&lt;385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;641</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M2&lt;1022</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>705.9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>-1.33125594721222</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="n">
+        <v>0.449275740699553</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.707587813384929</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>-0.682824133578272</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="n">
+        <v>1.18283376206937</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>1.18390710042908</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>557.2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="n">
+        <v>-1.50070090257023</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="n">
+        <v>0.496590220920573</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>H2&lt;388</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>I2&lt;628</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>J2&lt;1011</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>K2&lt;385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;616</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M2&lt;996</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.results/model_selection/goeland_leucophee_R_1_test_log_quad.xlsx
+++ b/3.results/model_selection/goeland_leucophee_R_1_test_log_quad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD76EEE-CDD9-43A7-81AC-CCCFACA35F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE8C90-73DE-4DBA-A444-98278EEE7FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_winter_SST" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,16 @@
     <sheet name="dist_to_shore" sheetId="8" r:id="rId8"/>
     <sheet name="bathymetry" sheetId="9" r:id="rId9"/>
     <sheet name="mean_CHL" sheetId="10" r:id="rId10"/>
-    <sheet name="sd_SAL" sheetId="11" r:id="rId11"/>
-    <sheet name="mean_SSH" sheetId="12" r:id="rId12"/>
-    <sheet name="sd_SSH" sheetId="13" r:id="rId13"/>
-    <sheet name="sd_VEL" sheetId="14" r:id="rId14"/>
+    <sheet name="mean_SSH" sheetId="11" r:id="rId11"/>
+    <sheet name="sd_SSH" sheetId="12" r:id="rId12"/>
+    <sheet name="sd_VEL" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
   <si>
     <t>model</t>
   </si>
@@ -357,33 +356,6 @@
   </si>
   <si>
     <t>log_mean_CHL</t>
-  </si>
-  <si>
-    <t>beta_I(sd_SAL)</t>
-  </si>
-  <si>
-    <t>beta_log_sd_SAL</t>
-  </si>
-  <si>
-    <t>beta_sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_beta_I(sd_SAL)</t>
-  </si>
-  <si>
-    <t>sd_beta_log_sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_beta_sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_SAL + I(sd_SAL)^2</t>
-  </si>
-  <si>
-    <t>log_sd_SAL</t>
   </si>
   <si>
     <t>beta_I(mean_SSH)</t>
@@ -523,143 +495,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="196">
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="182">
     <dxf>
       <font>
         <b/>
@@ -2804,43 +2640,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -2849,7 +2685,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -2863,28 +2699,28 @@
         <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>239</v>
+        <v>229.7</v>
       </c>
       <c r="D3" s="1">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="G3" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.49</v>
       </c>
       <c r="J3" s="1">
         <v>1553</v>
@@ -2905,20 +2741,20 @@
         <v>356</v>
       </c>
       <c r="P3" s="1">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q3" s="1">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-2.2528484925752599</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.54700555449584498</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2926,28 +2762,28 @@
         <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>1.097</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>215.1</v>
+        <v>271</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1">
         <v>1553</v>
@@ -2965,27 +2801,27 @@
         <v>1548</v>
       </c>
       <c r="O4" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P4" s="1">
         <v>622</v>
       </c>
       <c r="Q4" s="1">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="R4" s="1">
-        <v>-1.1668355546653899</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-1.14178565257178</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="U4" s="1">
-        <v>1.18536296323617</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.18793944769454</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -2993,28 +2829,28 @@
         <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>1.1200000000000001</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>212.5</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.51</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H5" s="1">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="I5" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="J5" s="1">
         <v>1553</v>
@@ -3023,67 +2859,67 @@
         <v>357</v>
       </c>
       <c r="L5" s="1">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M5" s="1">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="N5" s="1">
         <v>1547</v>
       </c>
       <c r="O5" s="1">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P5" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q5" s="1">
         <v>2525</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-2.28321445290837</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.575823822817771</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="195" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="194" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="193" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="179" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="192" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="191" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="190" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -3097,7 +2933,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="15">
+    <cfRule type="expression" dxfId="175" priority="15">
       <formula>J2&lt;1558</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3110,7 +2946,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="13">
+    <cfRule type="expression" dxfId="174" priority="13">
       <formula>K2&lt;362</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3123,7 +2959,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="11">
+    <cfRule type="expression" dxfId="173" priority="11">
       <formula>L2&lt;634</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3136,7 +2972,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="9">
+    <cfRule type="expression" dxfId="172" priority="9">
       <formula>M2&lt;2544</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3149,7 +2985,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="7">
+    <cfRule type="expression" dxfId="171" priority="7">
       <formula>N2&lt;1552</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3162,7 +2998,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="5">
+    <cfRule type="expression" dxfId="170" priority="5">
       <formula>O2&lt;360</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3175,7 +3011,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="3">
+    <cfRule type="expression" dxfId="169" priority="3">
       <formula>P2&lt;627</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3188,7 +3024,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="1">
+    <cfRule type="expression" dxfId="168" priority="1">
       <formula>Q2&lt;2530</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3283,43 +3119,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -3328,486 +3164,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.006</v>
-      </c>
-      <c r="C3" s="1">
-        <v>205.8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1563</v>
-      </c>
-      <c r="K3" s="1">
-        <v>358</v>
-      </c>
-      <c r="L3" s="1">
-        <v>626</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2547</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1561</v>
-      </c>
-      <c r="O3" s="1">
-        <v>354</v>
-      </c>
-      <c r="P3" s="1">
-        <v>623</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2538</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>2.4291901009496</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <v>0.72143714796754799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>244.2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1563</v>
-      </c>
-      <c r="K4" s="1">
-        <v>357</v>
-      </c>
-      <c r="L4" s="1">
-        <v>627</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2547</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1560</v>
-      </c>
-      <c r="O4" s="1">
-        <v>354</v>
-      </c>
-      <c r="P4" s="1">
-        <v>624</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2538</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1.38251170956904</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1">
-        <v>1.40207879074759</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.2250651880141801</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1">
-        <v>1.2320072623324001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>258.7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1563</v>
-      </c>
-      <c r="K5" s="1">
-        <v>357</v>
-      </c>
-      <c r="L5" s="1">
-        <v>628</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2548</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1560</v>
-      </c>
-      <c r="O5" s="1">
-        <v>353</v>
-      </c>
-      <c r="P5" s="1">
-        <v>624</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2537</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>2.0449836792127698</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
-        <v>0.54670489833158198</v>
-      </c>
-      <c r="W5" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="69" priority="22" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="68" priority="21" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="67" priority="20" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="66" priority="19" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="65" priority="18" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="64" priority="17" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="15">
-      <formula>J2&lt;1568</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="13">
-      <formula>K2&lt;362</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="11">
-      <formula>L2&lt;631</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="9">
-      <formula>M2&lt;2552</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="7">
-      <formula>N2&lt;1565</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="5">
-      <formula>O2&lt;358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="3">
-      <formula>P2&lt;628</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1">
-      <formula>Q2&lt;2542</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:W5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.012</v>
-      </c>
-      <c r="C2" s="1">
-        <v>212.1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1577</v>
-      </c>
-      <c r="K2" s="1">
-        <v>365</v>
-      </c>
-      <c r="L2" s="1">
-        <v>630</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2572</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1576</v>
-      </c>
-      <c r="O2" s="1">
-        <v>363</v>
-      </c>
-      <c r="P2" s="1">
-        <v>631</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -3818,194 +3175,194 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0289999999999999</v>
+        <v>1.008</v>
       </c>
       <c r="C3" s="1">
-        <v>270.10000000000002</v>
+        <v>211.2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H3" s="1">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="K3" s="1">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L3" s="1">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M3" s="1">
-        <v>2574</v>
+        <v>2548</v>
       </c>
       <c r="N3" s="1">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="O3" s="1">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P3" s="1">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="Q3" s="1">
-        <v>2573</v>
+        <v>2540</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>0.56421580216169298</v>
+        <v>2.5</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.46886333086478799</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1">
-        <v>1.097</v>
+        <v>1.006</v>
       </c>
       <c r="C4" s="1">
-        <v>214.4</v>
+        <v>215.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="G4" s="1">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="H4" s="1">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="1">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="K4" s="1">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L4" s="1">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M4" s="1">
-        <v>2574</v>
+        <v>2547</v>
       </c>
       <c r="N4" s="1">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="O4" s="1">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P4" s="1">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="Q4" s="1">
-        <v>2572</v>
+        <v>2538</v>
       </c>
       <c r="R4" s="1">
-        <v>0.28806091079178903</v>
+        <v>1.38</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>0.32991231265564502</v>
+        <v>1.38</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1926519465744001</v>
+        <v>1.24</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1888226725423501</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>116</v>
+      <c r="A5" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5" s="1">
-        <v>230.9</v>
+        <v>183.4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="G5" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H5" s="1">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="I5" s="1">
         <v>0.5</v>
       </c>
       <c r="J5" s="1">
-        <v>1578</v>
+        <v>1562</v>
       </c>
       <c r="K5" s="1">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L5" s="1">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M5" s="1">
-        <v>2574</v>
+        <v>2547</v>
       </c>
       <c r="N5" s="1">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="O5" s="1">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P5" s="1">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Q5" s="1">
-        <v>2572</v>
+        <v>2539</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>0.373000436280711</v>
+        <v>2.12</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.37971963515966201</v>
+        <v>0.62</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -4056,7 +3413,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="49" priority="15">
-      <formula>J2&lt;1582</formula>
+      <formula>J2&lt;1567</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -4069,7 +3426,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="13">
-      <formula>K2&lt;370</formula>
+      <formula>K2&lt;362</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -4082,7 +3439,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="47" priority="11">
-      <formula>L2&lt;635</formula>
+      <formula>L2&lt;632</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -4095,7 +3452,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="9">
-      <formula>M2&lt;2577</formula>
+      <formula>M2&lt;2552</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -4108,7 +3465,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="7">
-      <formula>N2&lt;1580</formula>
+      <formula>N2&lt;1565</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -4121,7 +3478,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="5">
-      <formula>O2&lt;368</formula>
+      <formula>O2&lt;359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -4134,7 +3491,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="3">
-      <formula>P2&lt;636</formula>
+      <formula>P2&lt;629</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -4147,7 +3504,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="1">
-      <formula>Q2&lt;2575</formula>
+      <formula>Q2&lt;2543</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4155,8 +3512,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4218,22 +3575,22 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4241,43 +3598,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -4286,7 +3643,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4297,34 +3654,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1">
-        <v>1.044</v>
+        <v>1.018</v>
       </c>
       <c r="C3" s="1">
-        <v>308.2</v>
+        <v>236.2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I3" s="1">
         <v>0.51</v>
       </c>
       <c r="J3" s="1">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="K3" s="1">
         <v>366</v>
@@ -4333,61 +3690,61 @@
         <v>611</v>
       </c>
       <c r="M3" s="1">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="N3" s="1">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O3" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P3" s="1">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q3" s="1">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>2.2929618083344399</v>
+        <v>2.34</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.58957867889342797</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0029999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>305.2</v>
+        <v>231.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="1">
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="K4" s="1">
         <v>366</v>
@@ -4396,62 +3753,62 @@
         <v>610</v>
       </c>
       <c r="M4" s="1">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="N4" s="1">
         <v>1578</v>
       </c>
       <c r="O4" s="1">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P4" s="1">
         <v>609</v>
       </c>
       <c r="Q4" s="1">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="R4" s="1">
-        <v>1.2334687205016699</v>
+        <v>1.26</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>1.22574520669318</v>
+        <v>1.29</v>
       </c>
       <c r="U4" s="1">
-        <v>1.18408244612677</v>
+        <v>1.23</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.17813743981019</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1">
-        <v>1.006</v>
+        <v>1.075</v>
       </c>
       <c r="C5" s="1">
-        <v>291.7</v>
+        <v>304.7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.51</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H5" s="1">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>1578</v>
@@ -4469,22 +3826,22 @@
         <v>1577</v>
       </c>
       <c r="O5" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P5" s="1">
         <v>610</v>
       </c>
       <c r="Q5" s="1">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>2.3255134716379802</v>
+        <v>2.29</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.61199195695297604</v>
+        <v>0.62</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -4548,7 +3905,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="13">
-      <formula>K2&lt;370</formula>
+      <formula>K2&lt;371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -4574,7 +3931,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="9">
-      <formula>M2&lt;2559</formula>
+      <formula>M2&lt;2560</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -4587,7 +3944,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="7">
-      <formula>N2&lt;1581</formula>
+      <formula>N2&lt;1580</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -4627,6 +3984,485 @@
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="1">
       <formula>Q2&lt;2556</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>244</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1577</v>
+      </c>
+      <c r="K2" s="1">
+        <v>366</v>
+      </c>
+      <c r="L2" s="1">
+        <v>630</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2573</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1575</v>
+      </c>
+      <c r="O2" s="1">
+        <v>363</v>
+      </c>
+      <c r="P2" s="1">
+        <v>631</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2569</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>309.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1552</v>
+      </c>
+      <c r="K3" s="1">
+        <v>368</v>
+      </c>
+      <c r="L3" s="1">
+        <v>611</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2531</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1554</v>
+      </c>
+      <c r="O3" s="1">
+        <v>365</v>
+      </c>
+      <c r="P3" s="1">
+        <v>603</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2522</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.032</v>
+      </c>
+      <c r="C4" s="1">
+        <v>265.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1552</v>
+      </c>
+      <c r="K4" s="1">
+        <v>368</v>
+      </c>
+      <c r="L4" s="1">
+        <v>611</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2531</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1554</v>
+      </c>
+      <c r="O4" s="1">
+        <v>365</v>
+      </c>
+      <c r="P4" s="1">
+        <v>602</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2521</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.006</v>
+      </c>
+      <c r="C5" s="1">
+        <v>242.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1552</v>
+      </c>
+      <c r="K5" s="1">
+        <v>368</v>
+      </c>
+      <c r="L5" s="1">
+        <v>610</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2530</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1554</v>
+      </c>
+      <c r="O5" s="1">
+        <v>365</v>
+      </c>
+      <c r="P5" s="1">
+        <v>602</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2521</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="W5" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>J2&lt;1557</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="13">
+      <formula>K2&lt;371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>L2&lt;615</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9">
+      <formula>M2&lt;2535</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>N2&lt;1559</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>O2&lt;368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>P2&lt;607</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>Q2&lt;2526</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4638,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,43 +4556,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -4765,486 +4601,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.026</v>
-      </c>
-      <c r="C3" s="1">
-        <v>266</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1552</v>
-      </c>
-      <c r="K3" s="1">
-        <v>368</v>
-      </c>
-      <c r="L3" s="1">
-        <v>611</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2531</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1554</v>
-      </c>
-      <c r="O3" s="1">
-        <v>365</v>
-      </c>
-      <c r="P3" s="1">
-        <v>603</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2522</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>2.6081314220477601</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <v>0.44360944449453199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.024</v>
-      </c>
-      <c r="C4" s="1">
-        <v>220.2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1552</v>
-      </c>
-      <c r="K4" s="1">
-        <v>368</v>
-      </c>
-      <c r="L4" s="1">
-        <v>611</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2531</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1553</v>
-      </c>
-      <c r="O4" s="1">
-        <v>365</v>
-      </c>
-      <c r="P4" s="1">
-        <v>603</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2521</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1.3406125635086901</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1">
-        <v>1.3278783573928501</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.1956160465007799</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1">
-        <v>1.18502045276043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.018</v>
-      </c>
-      <c r="C5" s="1">
-        <v>304.7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1552</v>
-      </c>
-      <c r="K5" s="1">
-        <v>368</v>
-      </c>
-      <c r="L5" s="1">
-        <v>610</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2530</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1553</v>
-      </c>
-      <c r="O5" s="1">
-        <v>365</v>
-      </c>
-      <c r="P5" s="1">
-        <v>603</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2521</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>2.5895968180236899</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
-        <v>0.427012666065612</v>
-      </c>
-      <c r="W5" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>J2&lt;1557</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="13">
-      <formula>K2&lt;370</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>L2&lt;615</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>M2&lt;2535</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
-      <formula>N2&lt;1558</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>O2&lt;368</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>P2&lt;608</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1">
-      <formula>Q2&lt;2526</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:W5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.012</v>
-      </c>
-      <c r="C2" s="1">
-        <v>212.1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1577</v>
-      </c>
-      <c r="K2" s="1">
-        <v>365</v>
-      </c>
-      <c r="L2" s="1">
-        <v>630</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2572</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1576</v>
-      </c>
-      <c r="O2" s="1">
-        <v>363</v>
-      </c>
-      <c r="P2" s="1">
-        <v>631</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5255,97 +4612,97 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0489999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="C3" s="1">
-        <v>356.4</v>
+        <v>409.1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I3" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J3" s="1">
         <v>1569</v>
       </c>
       <c r="K3" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L3" s="1">
         <v>637</v>
       </c>
       <c r="M3" s="1">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="N3" s="1">
         <v>1567</v>
       </c>
       <c r="O3" s="1">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P3" s="1">
         <v>656</v>
       </c>
       <c r="Q3" s="1">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-0.74225145985781205</v>
+        <v>-0.74</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.31954585795602097</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1">
-        <v>1.028</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>379.6</v>
+        <v>438.9</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.52</v>
-      </c>
       <c r="H4" s="1">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K4" s="1">
         <v>362</v>
@@ -5354,7 +4711,7 @@
         <v>637</v>
       </c>
       <c r="M4" s="1">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="N4" s="1">
         <v>1567</v>
@@ -5363,65 +4720,65 @@
         <v>359</v>
       </c>
       <c r="P4" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Q4" s="1">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.37063737329275198</v>
+        <v>-0.39</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.38569533762948599</v>
+        <v>-0.38</v>
       </c>
       <c r="U4" s="1">
-        <v>1.18584490223135</v>
+        <v>1.17</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1833500029202999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1">
-        <v>1.079</v>
+        <v>1.018</v>
       </c>
       <c r="C5" s="1">
-        <v>281.3</v>
+        <v>493.9</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="G5" s="1">
         <v>0.51</v>
       </c>
       <c r="H5" s="1">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I5" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>1563</v>
       </c>
       <c r="K5" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L5" s="1">
         <v>633</v>
       </c>
       <c r="M5" s="1">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="N5" s="1">
         <v>1562</v>
@@ -5437,12 +4794,12 @@
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-1.3219473619884601</v>
+        <v>-1.28</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.40991200569389002</v>
+        <v>0.39</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -5506,7 +4863,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="13">
-      <formula>K2&lt;365</formula>
+      <formula>K2&lt;366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -5532,7 +4889,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula>M2&lt;2561</formula>
+      <formula>M2&lt;2562</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -5678,43 +5035,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -5723,7 +5080,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5737,28 +5094,28 @@
         <v>33</v>
       </c>
       <c r="B3" s="1">
-        <v>1.1539999999999999</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>201.6</v>
+        <v>242.9</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1">
         <v>1577</v>
@@ -5773,7 +5130,7 @@
         <v>2573</v>
       </c>
       <c r="N3" s="1">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="O3" s="1">
         <v>364</v>
@@ -5782,17 +5139,17 @@
         <v>632</v>
       </c>
       <c r="Q3" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-0.44782971622557699</v>
+        <v>-0.41</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.46751253118987302</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -5800,28 +5157,28 @@
         <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0660000000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>294.8</v>
+        <v>255.1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="1">
         <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="I4" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
         <v>1577</v>
@@ -5848,18 +5205,18 @@
         <v>2569</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.215341703130604</v>
+        <v>-0.24</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.241441932924915</v>
+        <v>-0.21</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1930055788778</v>
+        <v>1.2</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1992194769443201</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -5867,28 +5224,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>1.071</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>272.5</v>
+        <v>205.8</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G5" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>1577</v>
@@ -5906,58 +5263,58 @@
         <v>1574</v>
       </c>
       <c r="O5" s="1">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P5" s="1">
         <v>632</v>
       </c>
       <c r="Q5" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-0.46567734680092499</v>
+        <v>-0.45</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.447262674166998</v>
+        <v>0.47</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="181" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="167" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="180" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="179" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="178" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="177" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="176" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -5971,7 +5328,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="161" priority="15">
       <formula>J2&lt;1582</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5984,8 +5341,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="13">
-      <formula>K2&lt;370</formula>
+    <cfRule type="expression" dxfId="160" priority="13">
+      <formula>K2&lt;371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -5997,7 +5354,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="11">
+    <cfRule type="expression" dxfId="159" priority="11">
       <formula>L2&lt;635</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6010,8 +5367,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="9">
-      <formula>M2&lt;2577</formula>
+    <cfRule type="expression" dxfId="158" priority="9">
+      <formula>M2&lt;2578</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -6023,8 +5380,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="7">
-      <formula>N2&lt;1579</formula>
+    <cfRule type="expression" dxfId="157" priority="7">
+      <formula>N2&lt;1578</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -6036,7 +5393,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="5">
+    <cfRule type="expression" dxfId="156" priority="5">
       <formula>O2&lt;368</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6049,7 +5406,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="3">
+    <cfRule type="expression" dxfId="155" priority="3">
       <formula>P2&lt;636</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6062,7 +5419,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>Q2&lt;2574</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6157,43 +5514,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -6202,7 +5559,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -6216,25 +5573,25 @@
         <v>42</v>
       </c>
       <c r="B3" s="1">
-        <v>1.014</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>283.39999999999998</v>
+        <v>371</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="G3" s="1">
         <v>0.51</v>
       </c>
       <c r="H3" s="1">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="I3" s="1">
         <v>0.51</v>
@@ -6252,26 +5609,26 @@
         <v>2567</v>
       </c>
       <c r="N3" s="1">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="O3" s="1">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P3" s="1">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q3" s="1">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-1.0224022503330099</v>
+        <v>-1.03</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.443575695475524</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6279,28 +5636,28 @@
         <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0329999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="C4" s="1">
-        <v>329.3</v>
+        <v>377.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
         <v>1571</v>
@@ -6327,18 +5684,18 @@
         <v>2561</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.513172452540404</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.53187389088487602</v>
+        <v>-0.53</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1810974789917801</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.18109702162875</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6346,28 +5703,28 @@
         <v>44</v>
       </c>
       <c r="B5" s="1">
-        <v>1.1020000000000001</v>
+        <v>1.008</v>
       </c>
       <c r="C5" s="1">
-        <v>385.4</v>
+        <v>329.6</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I5" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>1572</v>
@@ -6388,55 +5745,55 @@
         <v>362</v>
       </c>
       <c r="P5" s="1">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q5" s="1">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-0.99779603183088506</v>
+        <v>-1.03</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.41815313003215698</v>
+        <v>0.43</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="167" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="166" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="152" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="165" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="164" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="163" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="149" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="162" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -6450,7 +5807,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="15">
+    <cfRule type="expression" dxfId="147" priority="15">
       <formula>J2&lt;1576</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6463,7 +5820,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="13">
+    <cfRule type="expression" dxfId="146" priority="13">
       <formula>K2&lt;370</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6476,7 +5833,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="11">
+    <cfRule type="expression" dxfId="145" priority="11">
       <formula>L2&lt;635</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6489,7 +5846,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="9">
+    <cfRule type="expression" dxfId="144" priority="9">
       <formula>M2&lt;2571</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6502,7 +5859,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="7">
+    <cfRule type="expression" dxfId="143" priority="7">
       <formula>N2&lt;1572</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6515,7 +5872,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="5">
+    <cfRule type="expression" dxfId="142" priority="5">
       <formula>O2&lt;367</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6528,8 +5885,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="3">
-      <formula>P2&lt;636</formula>
+    <cfRule type="expression" dxfId="141" priority="3">
+      <formula>P2&lt;635</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -6541,8 +5898,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="1">
-      <formula>Q2&lt;2565</formula>
+    <cfRule type="expression" dxfId="140" priority="1">
+      <formula>Q2&lt;2564</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6636,43 +5993,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -6681,7 +6038,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -6695,28 +6052,28 @@
         <v>51</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0609999999999999</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>438.2</v>
+        <v>444.3</v>
       </c>
       <c r="D3" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G3" s="1">
         <v>0.51</v>
       </c>
       <c r="H3" s="1">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1">
         <v>1566</v>
@@ -6745,12 +6102,12 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-1.2143147906541301</v>
+        <v>-1.22</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.37330100784656201</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6761,28 +6118,28 @@
         <v>1.0089999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>554.79999999999995</v>
+        <v>477.8</v>
       </c>
       <c r="D4" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E4" s="1">
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I4" s="1">
         <v>0.49</v>
       </c>
       <c r="J4" s="1">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K4" s="1">
         <v>362</v>
@@ -6791,7 +6148,7 @@
         <v>631</v>
       </c>
       <c r="M4" s="1">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="N4" s="1">
         <v>1559</v>
@@ -6800,24 +6157,24 @@
         <v>360</v>
       </c>
       <c r="P4" s="1">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q4" s="1">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.63363990654828795</v>
+        <v>-0.61</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.60576488152709496</v>
+        <v>-0.63</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1830326077377</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1837456293833699</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6825,28 +6182,28 @@
         <v>53</v>
       </c>
       <c r="B5" s="1">
-        <v>1.006</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>459.8</v>
+        <v>480.2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="E5" s="1">
         <v>0.52</v>
       </c>
       <c r="F5" s="1">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="G5" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="I5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>1565</v>
@@ -6861,10 +6218,10 @@
         <v>2558</v>
       </c>
       <c r="N5" s="1">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="O5" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P5" s="1">
         <v>628</v>
@@ -6874,48 +6231,48 @@
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-1.2308127479217601</v>
+        <v>-1.25</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.37265118309130502</v>
+        <v>0.39</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="153" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="152" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="151" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="150" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="149" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="148" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -6929,7 +6286,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="15">
+    <cfRule type="expression" dxfId="133" priority="15">
       <formula>J2&lt;1570</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6942,7 +6299,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="13">
+    <cfRule type="expression" dxfId="132" priority="13">
       <formula>K2&lt;367</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6955,7 +6312,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="11">
+    <cfRule type="expression" dxfId="131" priority="11">
       <formula>L2&lt;635</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6968,7 +6325,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="9">
+    <cfRule type="expression" dxfId="130" priority="9">
       <formula>M2&lt;2563</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6981,7 +6338,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="7">
+    <cfRule type="expression" dxfId="129" priority="7">
       <formula>N2&lt;1563</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6994,8 +6351,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="5">
-      <formula>O2&lt;364</formula>
+    <cfRule type="expression" dxfId="128" priority="5">
+      <formula>O2&lt;365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -7007,7 +6364,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="3">
+    <cfRule type="expression" dxfId="127" priority="3">
       <formula>P2&lt;633</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7020,7 +6377,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="126" priority="1">
       <formula>Q2&lt;2551</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7034,7 +6391,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,43 +6472,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -7160,7 +6517,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -7170,29 +6527,29 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.032</v>
       </c>
       <c r="C3" s="1">
-        <v>458.6</v>
+        <v>440.3</v>
       </c>
       <c r="D3" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.51</v>
-      </c>
       <c r="H3" s="1">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="I3" s="1">
         <v>0.5</v>
@@ -7201,13 +6558,13 @@
         <v>1562</v>
       </c>
       <c r="K3" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L3" s="1">
         <v>630</v>
       </c>
       <c r="M3" s="1">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="N3" s="1">
         <v>1554</v>
@@ -7224,12 +6581,12 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-1.42375863275395</v>
+        <v>-1.45</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.345365404825763</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -7237,31 +6594,31 @@
         <v>61</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>435.3</v>
+        <v>461.1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="E4" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="K4" s="1">
         <v>360</v>
@@ -7270,62 +6627,62 @@
         <v>630</v>
       </c>
       <c r="M4" s="1">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="N4" s="1">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="O4" s="1">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P4" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q4" s="1">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.72086858790735497</v>
+        <v>-0.71</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.72548407104880297</v>
+        <v>-0.75</v>
       </c>
       <c r="U4" s="1">
-        <v>1.18592294046421</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1768804126310699</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="1">
-        <v>1.02</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>517.9</v>
+        <v>408.2</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.51</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>1561</v>
@@ -7346,55 +6703,55 @@
         <v>358</v>
       </c>
       <c r="P5" s="1">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q5" s="1">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-1.4398608699445901</v>
+        <v>-1.44</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.33729693132752903</v>
+        <v>0.36</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="139" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="138" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="137" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="136" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="135" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="134" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -7408,7 +6765,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="15">
+    <cfRule type="expression" dxfId="119" priority="15">
       <formula>J2&lt;1566</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7421,7 +6778,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="13">
+    <cfRule type="expression" dxfId="118" priority="13">
       <formula>K2&lt;365</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7434,7 +6791,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="11">
+    <cfRule type="expression" dxfId="117" priority="11">
       <formula>L2&lt;635</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7447,7 +6804,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="9">
+    <cfRule type="expression" dxfId="116" priority="9">
       <formula>M2&lt;2556</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7460,8 +6817,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="7">
-      <formula>N2&lt;1558</formula>
+    <cfRule type="expression" dxfId="115" priority="7">
+      <formula>N2&lt;1559</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -7473,7 +6830,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="5">
+    <cfRule type="expression" dxfId="114" priority="5">
       <formula>O2&lt;363</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7486,8 +6843,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="3">
-      <formula>P2&lt;632</formula>
+    <cfRule type="expression" dxfId="113" priority="3">
+      <formula>P2&lt;631</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -7499,8 +6856,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="1">
-      <formula>Q2&lt;2544</formula>
+    <cfRule type="expression" dxfId="112" priority="1">
+      <formula>Q2&lt;2543</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,9 +6869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7594,43 +6949,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -7639,7 +6994,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -7649,35 +7004,35 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0049999999999999</v>
+        <v>1.101</v>
       </c>
       <c r="C3" s="1">
-        <v>410.2</v>
+        <v>377.4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="G3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I3" s="1">
         <v>0.5</v>
       </c>
       <c r="J3" s="1">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="K3" s="1">
         <v>359</v>
@@ -7686,16 +7041,16 @@
         <v>631</v>
       </c>
       <c r="M3" s="1">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="N3" s="1">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="O3" s="1">
         <v>358</v>
       </c>
       <c r="P3" s="1">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q3" s="1">
         <v>2545</v>
@@ -7703,12 +7058,12 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>1.2894666295215</v>
+        <v>1.29</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.35309048013191302</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -7716,31 +7071,31 @@
         <v>70</v>
       </c>
       <c r="B4" s="1">
-        <v>1.008</v>
+        <v>1.006</v>
       </c>
       <c r="C4" s="1">
-        <v>434.8</v>
+        <v>397.4</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="E4" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F4" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="G4" s="1">
         <v>0.52</v>
       </c>
       <c r="H4" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="K4" s="1">
         <v>359</v>
@@ -7749,33 +7104,33 @@
         <v>631</v>
       </c>
       <c r="M4" s="1">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="N4" s="1">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="O4" s="1">
         <v>358</v>
       </c>
       <c r="P4" s="1">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q4" s="1">
         <v>2545</v>
       </c>
       <c r="R4" s="1">
-        <v>0.64075959549503203</v>
+        <v>0.68</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>0.674991329620101</v>
+        <v>0.65</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1764067100673501</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.18386055554994</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -7783,28 +7138,28 @@
         <v>71</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="C5" s="1">
-        <v>446</v>
+        <v>446.2</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="1">
         <v>0.51</v>
       </c>
       <c r="F5" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="G5" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="H5" s="1">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="I5" s="1">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>1564</v>
@@ -7819,61 +7174,61 @@
         <v>2554</v>
       </c>
       <c r="N5" s="1">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O5" s="1">
         <v>358</v>
       </c>
       <c r="P5" s="1">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q5" s="1">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>1.23940994581848</v>
+        <v>1.23</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.32542194841711902</v>
+        <v>0.32</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="125" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="124" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="123" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="122" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="121" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="120" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -7887,8 +7242,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="15">
-      <formula>J2&lt;1568</formula>
+    <cfRule type="expression" dxfId="105" priority="15">
+      <formula>J2&lt;1569</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -7900,7 +7255,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="13">
+    <cfRule type="expression" dxfId="104" priority="13">
       <formula>K2&lt;364</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7913,7 +7268,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="11">
+    <cfRule type="expression" dxfId="103" priority="11">
       <formula>L2&lt;635</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7926,8 +7281,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="9">
-      <formula>M2&lt;2558</formula>
+    <cfRule type="expression" dxfId="102" priority="9">
+      <formula>M2&lt;2559</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -7939,8 +7294,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="7">
-      <formula>N2&lt;1565</formula>
+    <cfRule type="expression" dxfId="101" priority="7">
+      <formula>N2&lt;1566</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -7952,7 +7307,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="5">
+    <cfRule type="expression" dxfId="100" priority="5">
       <formula>O2&lt;363</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7965,8 +7320,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="3">
-      <formula>P2&lt;632</formula>
+    <cfRule type="expression" dxfId="99" priority="3">
+      <formula>P2&lt;631</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -7978,7 +7333,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>Q2&lt;2550</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7991,9 +7346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8073,43 +7426,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -8118,7 +7471,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -8128,29 +7481,29 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="1">
-        <v>1.4339999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="C3" s="1">
-        <v>44.1</v>
+        <v>124.3</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.51</v>
-      </c>
       <c r="H3" s="1">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="I3" s="1">
         <v>0.51</v>
@@ -8162,10 +7515,10 @@
         <v>370</v>
       </c>
       <c r="L3" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M3" s="1">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="N3" s="1">
         <v>1572</v>
@@ -8180,12 +7533,12 @@
         <v>2563</v>
       </c>
       <c r="R3" s="1">
-        <v>1.1943086427381699</v>
+        <v>1.19</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.57583047224341799</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -8195,40 +7548,40 @@
         <v>79</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0620000000000001</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>229.8</v>
+        <v>293.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="1">
         <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="G4" s="1">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K4" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L4" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M4" s="1">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="N4" s="1">
         <v>1572</v>
@@ -8243,17 +7596,17 @@
         <v>2564</v>
       </c>
       <c r="R4" s="1">
-        <v>0.58124560101435296</v>
+        <v>0.54</v>
       </c>
       <c r="S4" s="1">
-        <v>0.61457173464801895</v>
+        <v>0.49</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>1.2177032900446101</v>
+        <v>1.25</v>
       </c>
       <c r="V4" s="1">
-        <v>1.2249642370585601</v>
+        <v>1.25</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -8262,28 +7615,28 @@
         <v>80</v>
       </c>
       <c r="B5" s="1">
-        <v>1.1479999999999999</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>58.1</v>
+        <v>93.6</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I5" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J5" s="1">
         <v>1576</v>
@@ -8292,10 +7645,10 @@
         <v>370</v>
       </c>
       <c r="L5" s="1">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M5" s="1">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="N5" s="1">
         <v>1573</v>
@@ -8304,55 +7657,55 @@
         <v>363</v>
       </c>
       <c r="P5" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q5" s="1">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>1.07679061683796</v>
+        <v>1.24</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.76078535116991597</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="111" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="110" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="109" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="108" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="107" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="106" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -8366,8 +7719,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="15">
-      <formula>J2&lt;1581</formula>
+    <cfRule type="expression" dxfId="91" priority="15">
+      <formula>J2&lt;1580</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -8379,8 +7732,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="13">
-      <formula>K2&lt;370</formula>
+    <cfRule type="expression" dxfId="90" priority="13">
+      <formula>K2&lt;371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -8392,7 +7745,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="11">
+    <cfRule type="expression" dxfId="89" priority="11">
       <formula>L2&lt;627</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8405,7 +7758,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="88" priority="9">
       <formula>M2&lt;2573</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8418,7 +7771,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="7">
+    <cfRule type="expression" dxfId="87" priority="7">
       <formula>N2&lt;1577</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8431,7 +7784,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>O2&lt;368</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8444,7 +7797,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="3">
+    <cfRule type="expression" dxfId="85" priority="3">
       <formula>P2&lt;632</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8457,7 +7810,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>Q2&lt;2568</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8552,43 +7905,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -8597,7 +7950,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -8611,25 +7964,25 @@
         <v>87</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0640000000000001</v>
+        <v>1.044</v>
       </c>
       <c r="C3" s="1">
-        <v>485.4</v>
+        <v>462</v>
       </c>
       <c r="D3" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I3" s="1">
         <v>0.5</v>
@@ -8641,10 +7994,10 @@
         <v>364</v>
       </c>
       <c r="L3" s="1">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M3" s="1">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="N3" s="1">
         <v>1557</v>
@@ -8653,18 +8006,18 @@
         <v>362</v>
       </c>
       <c r="P3" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q3" s="1">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="R3" s="1">
-        <v>-1.22224887121184</v>
+        <v>-1.2</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.27216510001771199</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -8674,25 +8027,25 @@
         <v>88</v>
       </c>
       <c r="B4" s="1">
-        <v>1.02</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>370.9</v>
+        <v>462.7</v>
       </c>
       <c r="D4" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
@@ -8701,13 +8054,13 @@
         <v>1559</v>
       </c>
       <c r="K4" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L4" s="1">
         <v>626</v>
       </c>
       <c r="M4" s="1">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="N4" s="1">
         <v>1557</v>
@@ -8716,23 +8069,23 @@
         <v>362</v>
       </c>
       <c r="P4" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q4" s="1">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.62271995115114798</v>
+        <v>-0.63</v>
       </c>
       <c r="S4" s="1">
-        <v>-0.626740799461175</v>
+        <v>-0.62</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>1.1811495836535799</v>
+        <v>1.17</v>
       </c>
       <c r="V4" s="1">
-        <v>1.1724218216306499</v>
+        <v>1.18</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -8741,28 +8094,28 @@
         <v>89</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>421.9</v>
+        <v>309.89999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>1554</v>
@@ -8771,13 +8124,13 @@
         <v>364</v>
       </c>
       <c r="L5" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M5" s="1">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="N5" s="1">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="O5" s="1">
         <v>361</v>
@@ -8786,52 +8139,52 @@
         <v>608</v>
       </c>
       <c r="Q5" s="1">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>-1.99782178650426</v>
+        <v>-2</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.47254573571788</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="97" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="96" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="95" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="94" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="93" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="92" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -8845,7 +8198,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>J2&lt;1559</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8858,7 +8211,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="13">
+    <cfRule type="expression" dxfId="76" priority="13">
       <formula>K2&lt;369</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8871,8 +8224,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="11">
-      <formula>L2&lt;627</formula>
+    <cfRule type="expression" dxfId="75" priority="11">
+      <formula>L2&lt;628</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -8884,8 +8237,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="9">
-      <formula>M2&lt;2545</formula>
+    <cfRule type="expression" dxfId="74" priority="9">
+      <formula>M2&lt;2546</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -8897,8 +8250,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="7">
-      <formula>N2&lt;1555</formula>
+    <cfRule type="expression" dxfId="73" priority="7">
+      <formula>N2&lt;1556</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -8910,7 +8263,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5">
+    <cfRule type="expression" dxfId="72" priority="5">
       <formula>O2&lt;366</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8923,7 +8276,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="3">
+    <cfRule type="expression" dxfId="71" priority="3">
       <formula>P2&lt;613</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8936,8 +8289,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1">
-      <formula>Q2&lt;2524</formula>
+    <cfRule type="expression" dxfId="70" priority="1">
+      <formula>Q2&lt;2525</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9031,43 +8384,43 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.012</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>212.1</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>1577</v>
       </c>
       <c r="K2" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1">
         <v>630</v>
       </c>
       <c r="M2" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="N2" s="1">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O2" s="1">
         <v>363</v>
@@ -9076,7 +8429,7 @@
         <v>631</v>
       </c>
       <c r="Q2" s="1">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -9090,28 +8443,28 @@
         <v>96</v>
       </c>
       <c r="B3" s="1">
-        <v>1.032</v>
+        <v>1.024</v>
       </c>
       <c r="C3" s="1">
-        <v>339.6</v>
+        <v>406.4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G3" s="1">
         <v>0.51</v>
       </c>
       <c r="H3" s="1">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="I3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>1576</v>
@@ -9138,12 +8491,12 @@
         <v>2548</v>
       </c>
       <c r="R3" s="1">
-        <v>1.80558707132528</v>
+        <v>1.78</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.32366705548805103</v>
+        <v>0.31</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -9153,31 +8506,31 @@
         <v>97</v>
       </c>
       <c r="B4" s="1">
-        <v>1.04</v>
+        <v>1.006</v>
       </c>
       <c r="C4" s="1">
-        <v>303.89999999999998</v>
+        <v>286</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K4" s="1">
         <v>359</v>
@@ -9186,32 +8539,32 @@
         <v>612</v>
       </c>
       <c r="M4" s="1">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="N4" s="1">
         <v>1574</v>
       </c>
       <c r="O4" s="1">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P4" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q4" s="1">
         <v>2549</v>
       </c>
       <c r="R4" s="1">
-        <v>0.91382077151975505</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="1">
-        <v>0.91020142849765595</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>1.17224089546568</v>
+        <v>1.2</v>
       </c>
       <c r="V4" s="1">
-        <v>1.1797849001768099</v>
+        <v>1.19</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -9220,25 +8573,25 @@
         <v>98</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>386.6</v>
+        <v>257.3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G5" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H5" s="1">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I5" s="1">
         <v>0.51</v>
@@ -9262,55 +8615,55 @@
         <v>355</v>
       </c>
       <c r="P5" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q5" s="1">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>-1.99209045573452</v>
+        <v>-2</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.34521536423042398</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="83" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="82" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="81" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="80" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="79" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="78" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -9324,7 +8677,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="15">
+    <cfRule type="expression" dxfId="63" priority="15">
       <formula>J2&lt;1572</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9337,7 +8690,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="13">
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>K2&lt;363</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9350,7 +8703,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="11">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>L2&lt;617</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9363,7 +8716,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="9">
+    <cfRule type="expression" dxfId="60" priority="9">
       <formula>M2&lt;2544</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9376,7 +8729,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="7">
+    <cfRule type="expression" dxfId="59" priority="7">
       <formula>N2&lt;1569</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9389,7 +8742,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="5">
+    <cfRule type="expression" dxfId="58" priority="5">
       <formula>O2&lt;360</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9402,8 +8755,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="3">
-      <formula>P2&lt;620</formula>
+    <cfRule type="expression" dxfId="57" priority="3">
+      <formula>P2&lt;621</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -9415,8 +8768,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1">
-      <formula>Q2&lt;2539</formula>
+    <cfRule type="expression" dxfId="56" priority="1">
+      <formula>Q2&lt;2540</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
